--- a/output40new.xlsx
+++ b/output40new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Sequence</t>
   </si>
@@ -31,13 +31,7 @@
     <t>Steel Thickness</t>
   </si>
   <si>
-    <t>Transition</t>
-  </si>
-  <si>
     <t>last generation fit:</t>
-  </si>
-  <si>
-    <t>penalty improvement:</t>
   </si>
 </sst>
 </file>
@@ -136,261 +130,259 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
-              <c:strCache>
-                <c:ptCount val="41"/>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="31">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="38">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="39">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Transition</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>38</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$42</c:f>
+              <c:f>Sheet1!$B$2:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.212</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.156</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.544</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9856</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.538</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.87</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.958</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.851</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.65</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.456</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.89</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3165</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.6545</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>4.12</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="31">
+                  <c:v>8.63</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.26</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.26</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.21502</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>2.56</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="38">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.851</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.65</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.958</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.3165</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.456</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.54</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.65</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.87</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="39">
                   <c:v>1.235</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.23</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.89</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.156</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.3255</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.45</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.45</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.6545</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.544</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.65</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.45</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8.26</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.21502</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.9856</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7.95</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.212</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.538</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.63</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -423,6 +415,7 @@
           </c:tx>
           <c:layout/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
@@ -519,261 +512,259 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
-              <c:strCache>
-                <c:ptCount val="41"/>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="31">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="38">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="39">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Transition</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>38</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$42</c:f>
+              <c:f>Sheet1!$C$2:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
+                  <c:v>43.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.156</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.058</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.436</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.77</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55.19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47.874</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54.89</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>74.651651</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>69.561</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64.58</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>66.114</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>78.56</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>61.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45.2313</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>48.38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52.25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>69.56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>74.156</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>60.36</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="31">
+                  <c:v>62.26</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>78.424</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>77.546</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>73.69</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75.57</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>67.156</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>50.13</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="38">
                   <c:v>49.6</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>78.424</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>78.56</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47.874</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>55.19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>66.114</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>59.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>52.25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>69.56</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>53.15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45.2313</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43.56</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60.28</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>52.436</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="39">
                   <c:v>41.76</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>48.37</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>48.38</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>62.15</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>79.156</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>73.39</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>73.69</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>75.57</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>74.156</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43.77</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42.15</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>61.1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>74.651651</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>77.546</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>67.156</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>54.89</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>40.01</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>65.058</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>61.3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>56.91</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>65.156</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>69.561</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>62.26</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>64.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -806,6 +797,7 @@
           </c:tx>
           <c:layout/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50020002"/>
         <c:crosses val="autoZero"/>
@@ -902,261 +894,259 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
-              <c:strCache>
-                <c:ptCount val="41"/>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="31">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="38">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="39">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Transition</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>38</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$42</c:f>
+              <c:f>Sheet1!$D$2:$D$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
+                  <c:v>4.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.37824113000151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.26684008882887</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0886811852178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.67681034067818</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.486</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1651</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.10292338084341</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.1561</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.50390755992378</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.93322435106769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.86221291267888</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.81850610944107</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.86</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.478</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.52730846022988</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.456</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.14304298669073</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.598283480048</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.456</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.04834336787983</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.56</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.156</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.85</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>9.76604421039454</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="31">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.48635731906373</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.95609414368599</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.00888823149574</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.123</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.153</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>8.456</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="38">
                   <c:v>8.3208950273216</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.48635731906373</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.456</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.81850610944107</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.86221291267888</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.46</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.598283480048</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.56</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.156</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.75</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.456</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.56</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.0886811852178</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.10292338084341</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="39">
                   <c:v>8.93124828913679</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.93322435106769</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.04834336787983</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.1651</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.65</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.67681034067818</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.00888823149574</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.123</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.85</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.50390755992378</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.65</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.14304298669073</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.478</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8.95609414368599</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.153</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.86</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.1561</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.486</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.26684008882887</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.37824113000151</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.78</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6.56</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9.9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.52730846022988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1189,6 +1179,7 @@
           </c:tx>
           <c:layout/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50030002"/>
         <c:crosses val="autoZero"/>
@@ -1285,261 +1276,259 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
-              <c:strCache>
-                <c:ptCount val="41"/>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="31">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="38">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="39">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Transition</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>38</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$42</c:f>
+              <c:f>Sheet1!$E$2:$E$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.215145979699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.5500146026892</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.4936176795295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.4445</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.94</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65.2323</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54.23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.79</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.8048299949942</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>77.4079978790446</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79.468</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>74.562</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53.3847278691582</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64.23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56.56</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36.69</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.285</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.4864</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40.28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.486</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.24</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>54.75</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="31">
+                  <c:v>75.156</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44.611208421753</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68.48</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>74.56</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>77.1561651</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>79.55</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="38">
                   <c:v>78.3603</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>37.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56.56</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>77.4079978790446</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64.23</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.285</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28.486</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>29.24</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26.4864</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22.5500146026892</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>56.94</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="39">
                   <c:v>71.7624840528628</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>48.8048299949942</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40.28</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24.26</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>65.4445</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>28.4936176795295</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>68.48</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>74.56</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>75.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>56.79</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>65.2323</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>36.69</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>74.562</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44.611208421753</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>77.1561651</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>79.468</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>54.23</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>26.54</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>40.7</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>28.215145979699</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>26.145</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>23.23</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>75.156</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>53.3847278691582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1572,6 +1561,7 @@
           </c:tx>
           <c:layout/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50040002"/>
         <c:crosses val="autoZero"/>
@@ -2035,7 +2025,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2060,703 +2050,690 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>4.12</v>
+        <v>6.54</v>
       </c>
       <c r="C2">
-        <v>60.36</v>
+        <v>43.56</v>
       </c>
       <c r="D2">
-        <v>9.76604421039454</v>
+        <v>4.56</v>
       </c>
       <c r="E2">
-        <v>54.75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B3">
-        <v>2.56</v>
+        <v>7.5</v>
       </c>
       <c r="C3">
-        <v>50.13</v>
+        <v>56.91</v>
       </c>
       <c r="D3">
-        <v>8.456</v>
+        <v>4.37824113000151</v>
       </c>
       <c r="E3">
-        <v>79.55</v>
+        <v>28.215145979699</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>7.95</v>
       </c>
       <c r="C4">
-        <v>49.6</v>
+        <v>61.3</v>
       </c>
       <c r="D4">
-        <v>8.3208950273216</v>
+        <v>4.26684008882887</v>
       </c>
       <c r="E4">
-        <v>78.3603</v>
+        <v>40.7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B5">
-        <v>7.26</v>
+        <v>8.65</v>
       </c>
       <c r="C5">
-        <v>78.424</v>
+        <v>60.28</v>
       </c>
       <c r="D5">
-        <v>9.48635731906373</v>
+        <v>5.0886811852178</v>
       </c>
       <c r="E5">
-        <v>37.2</v>
+        <v>22.5500146026892</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>6.851</v>
+        <v>6.212</v>
       </c>
       <c r="C6">
-        <v>78.56</v>
+        <v>65.156</v>
       </c>
       <c r="D6">
-        <v>7.456</v>
+        <v>4.78</v>
       </c>
       <c r="E6">
-        <v>56.56</v>
+        <v>26.145</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>9.65</v>
+        <v>5.45</v>
       </c>
       <c r="C7">
-        <v>47.874</v>
+        <v>73.39</v>
       </c>
       <c r="D7">
-        <v>6.81850610944107</v>
+        <v>4.67681034067818</v>
       </c>
       <c r="E7">
-        <v>77.4079978790446</v>
+        <v>28.4936176795295</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>6.32</v>
+        <v>2.3255</v>
       </c>
       <c r="C8">
-        <v>55.19</v>
+        <v>79.156</v>
       </c>
       <c r="D8">
-        <v>6.86221291267888</v>
+        <v>4.65</v>
       </c>
       <c r="E8">
-        <v>73</v>
+        <v>65.4445</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B9">
-        <v>7.958</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>66.114</v>
+        <v>65.058</v>
       </c>
       <c r="D9">
-        <v>7.46</v>
+        <v>4.486</v>
       </c>
       <c r="E9">
-        <v>64.23</v>
+        <v>26.54</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>3.2</v>
+        <v>2.156</v>
       </c>
       <c r="C10">
-        <v>59.2</v>
+        <v>62.15</v>
       </c>
       <c r="D10">
-        <v>7.598283480048</v>
+        <v>5.1651</v>
       </c>
       <c r="E10">
-        <v>20.285</v>
+        <v>24.26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>3.15</v>
+        <v>4.7</v>
       </c>
       <c r="C11">
-        <v>52.25</v>
+        <v>53.15</v>
       </c>
       <c r="D11">
-        <v>8.56</v>
+        <v>5.75</v>
       </c>
       <c r="E11">
-        <v>28.486</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B12">
-        <v>2.3165</v>
+        <v>2.87</v>
       </c>
       <c r="C12">
-        <v>69.56</v>
+        <v>52.436</v>
       </c>
       <c r="D12">
-        <v>9.156</v>
+        <v>5.10292338084341</v>
       </c>
       <c r="E12">
-        <v>29.24</v>
+        <v>56.94</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>4.7</v>
+        <v>2.544</v>
       </c>
       <c r="C13">
-        <v>53.15</v>
+        <v>42.15</v>
       </c>
       <c r="D13">
-        <v>5.75</v>
+        <v>5.65</v>
       </c>
       <c r="E13">
-        <v>22</v>
+        <v>65.2323</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>4.456</v>
+        <v>1.9856</v>
       </c>
       <c r="C14">
-        <v>45.2313</v>
+        <v>40.01</v>
       </c>
       <c r="D14">
-        <v>7.456</v>
+        <v>6.1561</v>
       </c>
       <c r="E14">
-        <v>26.4864</v>
+        <v>54.23</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B15">
-        <v>6.54</v>
+        <v>0.8</v>
       </c>
       <c r="C15">
-        <v>43.56</v>
+        <v>43.77</v>
       </c>
       <c r="D15">
-        <v>4.56</v>
+        <v>6.50390755992378</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>56.79</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B16">
-        <v>8.65</v>
+        <v>3.23</v>
       </c>
       <c r="C16">
-        <v>60.28</v>
+        <v>48.37</v>
       </c>
       <c r="D16">
-        <v>5.0886811852178</v>
+        <v>6.93322435106769</v>
       </c>
       <c r="E16">
-        <v>22.5500146026892</v>
+        <v>48.8048299949942</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B17">
-        <v>2.87</v>
+        <v>6.32</v>
       </c>
       <c r="C17">
-        <v>52.436</v>
+        <v>55.19</v>
       </c>
       <c r="D17">
-        <v>5.10292338084341</v>
+        <v>6.86221291267888</v>
       </c>
       <c r="E17">
-        <v>56.94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18">
-        <v>1.235</v>
+        <v>9.65</v>
       </c>
       <c r="C18">
-        <v>41.76</v>
+        <v>47.874</v>
       </c>
       <c r="D18">
-        <v>8.93124828913679</v>
+        <v>6.81850610944107</v>
       </c>
       <c r="E18">
-        <v>71.7624840528628</v>
+        <v>77.4079978790446</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>3.23</v>
+        <v>8.6</v>
       </c>
       <c r="C19">
-        <v>48.37</v>
+        <v>54.89</v>
       </c>
       <c r="D19">
-        <v>6.93322435106769</v>
+        <v>5.86</v>
       </c>
       <c r="E19">
-        <v>48.8048299949942</v>
+        <v>79.468</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>5.89</v>
+        <v>7.45</v>
       </c>
       <c r="C20">
-        <v>48.38</v>
+        <v>74.651651</v>
       </c>
       <c r="D20">
-        <v>8.04834336787983</v>
+        <v>5.478</v>
       </c>
       <c r="E20">
-        <v>40.28</v>
+        <v>74.562</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>2.156</v>
+        <v>9.538</v>
       </c>
       <c r="C21">
-        <v>62.15</v>
+        <v>69.561</v>
       </c>
       <c r="D21">
-        <v>5.1651</v>
+        <v>6.56</v>
       </c>
       <c r="E21">
-        <v>24.26</v>
+        <v>23.23</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B22">
-        <v>2.3255</v>
+        <v>9.87</v>
       </c>
       <c r="C22">
-        <v>79.156</v>
+        <v>64.58</v>
       </c>
       <c r="D22">
-        <v>4.65</v>
+        <v>6.52730846022988</v>
       </c>
       <c r="E22">
-        <v>65.4445</v>
+        <v>53.3847278691582</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B23">
-        <v>5.45</v>
+        <v>7.958</v>
       </c>
       <c r="C23">
-        <v>73.39</v>
+        <v>66.114</v>
       </c>
       <c r="D23">
-        <v>4.67681034067818</v>
+        <v>7.46</v>
       </c>
       <c r="E23">
-        <v>28.4936176795295</v>
+        <v>64.23</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>5</v>
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>6.851</v>
+      </c>
+      <c r="C24">
+        <v>78.56</v>
+      </c>
+      <c r="D24">
+        <v>7.456</v>
+      </c>
+      <c r="E24">
+        <v>56.56</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <v>9.45</v>
+        <v>6.65</v>
       </c>
       <c r="C25">
-        <v>73.69</v>
+        <v>61.1</v>
       </c>
       <c r="D25">
-        <v>9.00888823149574</v>
+        <v>7.14304298669073</v>
       </c>
       <c r="E25">
-        <v>68.48</v>
+        <v>36.69</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>9.6</v>
+        <v>3.2</v>
       </c>
       <c r="C26">
-        <v>75.57</v>
+        <v>59.2</v>
       </c>
       <c r="D26">
-        <v>8.123</v>
+        <v>7.598283480048</v>
       </c>
       <c r="E26">
-        <v>74.56</v>
+        <v>20.285</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>2.6545</v>
+        <v>4.456</v>
       </c>
       <c r="C27">
-        <v>74.156</v>
+        <v>45.2313</v>
       </c>
       <c r="D27">
-        <v>9.85</v>
+        <v>7.456</v>
       </c>
       <c r="E27">
-        <v>75.5</v>
+        <v>26.4864</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>0.8</v>
+        <v>5.89</v>
       </c>
       <c r="C28">
-        <v>43.77</v>
+        <v>48.38</v>
       </c>
       <c r="D28">
-        <v>6.50390755992378</v>
+        <v>8.04834336787983</v>
       </c>
       <c r="E28">
-        <v>56.79</v>
+        <v>40.28</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B29">
-        <v>2.544</v>
+        <v>3.15</v>
       </c>
       <c r="C29">
-        <v>42.15</v>
+        <v>52.25</v>
       </c>
       <c r="D29">
-        <v>5.65</v>
+        <v>8.56</v>
       </c>
       <c r="E29">
-        <v>65.2323</v>
+        <v>28.486</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B30">
-        <v>6.65</v>
+        <v>2.3165</v>
       </c>
       <c r="C30">
-        <v>61.1</v>
+        <v>69.56</v>
       </c>
       <c r="D30">
-        <v>7.14304298669073</v>
+        <v>9.156</v>
       </c>
       <c r="E30">
-        <v>36.69</v>
+        <v>29.24</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B31">
-        <v>7.45</v>
+        <v>2.6545</v>
       </c>
       <c r="C31">
-        <v>74.651651</v>
+        <v>74.156</v>
       </c>
       <c r="D31">
-        <v>5.478</v>
+        <v>9.85</v>
       </c>
       <c r="E31">
-        <v>74.562</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>8.26</v>
+        <v>4.12</v>
       </c>
       <c r="C32">
-        <v>77.546</v>
+        <v>60.36</v>
       </c>
       <c r="D32">
-        <v>8.95609414368599</v>
+        <v>9.76604421039454</v>
       </c>
       <c r="E32">
-        <v>44.611208421753</v>
+        <v>54.75</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B33">
-        <v>4.21502</v>
+        <v>8.63</v>
       </c>
       <c r="C33">
-        <v>67.156</v>
+        <v>62.26</v>
       </c>
       <c r="D33">
-        <v>8.153</v>
+        <v>9.9</v>
       </c>
       <c r="E33">
-        <v>77.1561651</v>
+        <v>75.156</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B34">
-        <v>8.6</v>
+        <v>7.26</v>
       </c>
       <c r="C34">
-        <v>54.89</v>
+        <v>78.424</v>
       </c>
       <c r="D34">
-        <v>5.86</v>
+        <v>9.48635731906373</v>
       </c>
       <c r="E34">
-        <v>79.468</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>1.9856</v>
+        <v>8.26</v>
       </c>
       <c r="C35">
-        <v>40.01</v>
+        <v>77.546</v>
       </c>
       <c r="D35">
-        <v>6.1561</v>
+        <v>8.95609414368599</v>
       </c>
       <c r="E35">
-        <v>54.23</v>
+        <v>44.611208421753</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>9.45</v>
       </c>
       <c r="C36">
-        <v>65.058</v>
+        <v>73.69</v>
       </c>
       <c r="D36">
-        <v>4.486</v>
+        <v>9.00888823149574</v>
       </c>
       <c r="E36">
-        <v>26.54</v>
+        <v>68.48</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B37">
-        <v>7.95</v>
+        <v>9.6</v>
       </c>
       <c r="C37">
-        <v>61.3</v>
+        <v>75.57</v>
       </c>
       <c r="D37">
-        <v>4.26684008882887</v>
+        <v>8.123</v>
       </c>
       <c r="E37">
-        <v>40.7</v>
+        <v>74.56</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B38">
-        <v>7.5</v>
+        <v>4.21502</v>
       </c>
       <c r="C38">
-        <v>56.91</v>
+        <v>67.156</v>
       </c>
       <c r="D38">
-        <v>4.37824113000151</v>
+        <v>8.153</v>
       </c>
       <c r="E38">
-        <v>28.215145979699</v>
+        <v>77.1561651</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B39">
-        <v>6.212</v>
+        <v>2.56</v>
       </c>
       <c r="C39">
-        <v>65.156</v>
+        <v>50.13</v>
       </c>
       <c r="D39">
-        <v>4.78</v>
+        <v>8.456</v>
       </c>
       <c r="E39">
-        <v>26.145</v>
+        <v>79.55</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B40">
-        <v>9.538</v>
+        <v>0.9</v>
       </c>
       <c r="C40">
-        <v>69.561</v>
+        <v>49.6</v>
       </c>
       <c r="D40">
-        <v>6.56</v>
+        <v>8.3208950273216</v>
       </c>
       <c r="E40">
-        <v>23.23</v>
+        <v>78.3603</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B41">
-        <v>8.63</v>
+        <v>1.235</v>
       </c>
       <c r="C41">
-        <v>62.26</v>
+        <v>41.76</v>
       </c>
       <c r="D41">
-        <v>9.9</v>
+        <v>8.93124828913679</v>
       </c>
       <c r="E41">
-        <v>75.156</v>
+        <v>71.7624840528628</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42">
-        <v>38</v>
+      <c r="A42" t="s">
+        <v>5</v>
       </c>
       <c r="B42">
-        <v>9.87</v>
-      </c>
-      <c r="C42">
-        <v>64.58</v>
-      </c>
-      <c r="D42">
-        <v>6.52730846022988</v>
-      </c>
-      <c r="E42">
-        <v>53.3847278691582</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43">
-        <v>0.743047255419348</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44">
-        <v>89.7036307386536</v>
+        <v>0.874142610991535</v>
       </c>
     </row>
   </sheetData>
